--- a/depuracion/OUTPUT/Usuario.xlsx
+++ b/depuracion/OUTPUT/Usuario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Usuario</t>
   </si>
@@ -23,19 +23,46 @@
     <t>Resultado</t>
   </si>
   <si>
-    <t>jairist@yahoo.com</t>
+    <t>b_pizzirani@yahoo.com</t>
+  </si>
+  <si>
+    <t>Just42you!</t>
+  </si>
+  <si>
+    <t>jairist@aol.com</t>
   </si>
   <si>
     <t>Monitorde16</t>
   </si>
   <si>
-    <t>jairist@aol.com</t>
-  </si>
-  <si>
-    <t>Msjbds@yahoo.com</t>
-  </si>
-  <si>
-    <t>powerman1</t>
+    <t>Abbygirl2014@yahoo.com</t>
+  </si>
+  <si>
+    <t>abbygirl2014</t>
+  </si>
+  <si>
+    <t>Acellis25@yahoo.com</t>
+  </si>
+  <si>
+    <t>Pittstudent#25</t>
+  </si>
+  <si>
+    <t>acurts1227@yahoo.com</t>
+  </si>
+  <si>
+    <t>Nottoday_275109</t>
+  </si>
+  <si>
+    <t>adebonnie@yahoo.com</t>
+  </si>
+  <si>
+    <t>##K9dakota</t>
+  </si>
+  <si>
+    <t>defonick83@yahoo.com</t>
+  </si>
+  <si>
+    <t>#Emmett123</t>
   </si>
   <si>
     <t>Valido</t>
@@ -92,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -117,7 +144,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -125,21 +152,58 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
